--- a/fsdviz/tests/xls_files/good_one_record.xlsx
+++ b/fsdviz/tests/xls_files/good_one_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4EDCD-5035-45E4-9571-C1DB6CFEEC21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33C36E7-6CDE-4E63-B86F-69902A959B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fsdviz/tests/xls_files/good_one_record.xlsx
+++ b/fsdviz/tests/xls_files/good_one_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33C36E7-6CDE-4E63-B86F-69902A959B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6A5E1-5E9F-4BAE-89D1-D4AA1DA72004}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StockingEvents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>stock_id</t>
   </si>
@@ -109,9 +109,6 @@
     <t>agency</t>
   </si>
   <si>
-    <t>validation</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>MNRF</t>
+  </si>
+  <si>
+    <t>hatchery</t>
+  </si>
+  <si>
+    <t>agency_stock_id</t>
+  </si>
+  <si>
+    <t>CFCW</t>
+  </si>
+  <si>
+    <t>X9999</t>
   </si>
 </sst>
 </file>
@@ -488,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,15 +597,18 @@
         <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
       <c r="D2">
         <v>2015</v>
@@ -608,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>42.342241799999996</v>
@@ -620,13 +632,13 @@
         <v>214</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>18149</v>
@@ -635,13 +647,13 @@
         <v>2014</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2">
         <v>99.5</v>
@@ -662,16 +674,22 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>42</v>
-      </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
